--- a/ArticleManage/main_working_folder/output_folders/Data 132 Nitrogen-doped porous carbon prepared/Data132_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 132 Nitrogen-doped porous carbon prepared/Data132_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="C-500" sheetId="1" r:id="rId1"/>
-    <sheet name="C-600" sheetId="2" r:id="rId4"/>
-    <sheet name="C-700" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 C-500  0-1-0-800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 C-600  0-1-0-800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 C-700  0-1-0-800 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki C-500</a:t>
+              <a:t>Izoterma adsorpcji probki C-500 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'C-500'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 C-500  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'C-500'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 C-500  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -182,6 +182,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -251,6 +253,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -415,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki C-600</a:t>
+              <a:t>Izoterma adsorpcji probki C-600 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'C-600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 C-600  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'C-600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 C-600  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -492,6 +496,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -561,6 +567,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki C-700</a:t>
+              <a:t>Izoterma adsorpcji probki C-700 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'C-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 C-700  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'C-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 C-700  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -802,6 +810,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -871,6 +881,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 132 Nitrogen-doped porous carbon prepared/Data132_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 132 Nitrogen-doped porous carbon prepared/Data132_all_graphs_excel.xlsx
@@ -3099,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,413 +3120,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0</v>
+        <v>0.996</v>
       </c>
       <c r="B3" s="0">
-        <v>172.0281</v>
+        <v>519.6051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0009</v>
+        <v>0.9528</v>
       </c>
       <c r="B4" s="0">
-        <v>133.9273</v>
+        <v>381.9464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0006</v>
+        <v>0.9013</v>
       </c>
       <c r="B5" s="0">
-        <v>89.2493</v>
+        <v>354.3018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0005</v>
+        <v>0.8517</v>
       </c>
       <c r="B6" s="0">
-        <v>71.042</v>
+        <v>341.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0144</v>
+        <v>0.8003</v>
       </c>
       <c r="B7" s="0">
-        <v>210.8651</v>
+        <v>333.4274</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0366</v>
+        <v>0.7508</v>
       </c>
       <c r="B8" s="0">
-        <v>228.5548</v>
+        <v>325.5289</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0589</v>
+        <v>0.7007</v>
       </c>
       <c r="B9" s="0">
-        <v>236.5545</v>
+        <v>314.2454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0811</v>
+        <v>0.6512</v>
       </c>
       <c r="B10" s="0">
-        <v>242.4526</v>
+        <v>309.732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1033</v>
+        <v>0.6012</v>
       </c>
       <c r="B11" s="0">
-        <v>246.9948</v>
+        <v>304.0903</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1255</v>
+        <v>0.5517</v>
       </c>
       <c r="B12" s="0">
-        <v>251.2659</v>
+        <v>300.7052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1478</v>
+        <v>0.5016</v>
       </c>
       <c r="B13" s="0">
-        <v>256.0115</v>
+        <v>296.1918</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.17</v>
+        <v>0.4497</v>
       </c>
       <c r="B14" s="0">
-        <v>258.7232</v>
+        <v>291.6784</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1922</v>
+        <v>0.4002</v>
       </c>
       <c r="B15" s="0">
-        <v>261.9095</v>
+        <v>287.165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2145</v>
+        <v>0.3502</v>
       </c>
       <c r="B16" s="0">
-        <v>265.4348</v>
+        <v>282.0874</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2367</v>
+        <v>0.2997</v>
       </c>
       <c r="B17" s="0">
-        <v>268.011</v>
+        <v>276.4457</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2589</v>
+        <v>0.2497</v>
       </c>
       <c r="B18" s="0">
-        <v>270.1804</v>
+        <v>269.6756</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2811</v>
+        <v>0.2001</v>
       </c>
       <c r="B19" s="0">
-        <v>273.5701</v>
+        <v>263.4697</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3034</v>
+        <v>0.1501</v>
       </c>
       <c r="B20" s="0">
-        <v>276.6887</v>
+        <v>257.2638</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3256</v>
+        <v>0.102</v>
       </c>
       <c r="B21" s="0">
-        <v>278.3157</v>
+        <v>248.237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3478</v>
+        <v>0.0921</v>
       </c>
       <c r="B22" s="0">
-        <v>281.502</v>
+        <v>245.9803</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.37</v>
+        <v>0.0718</v>
       </c>
       <c r="B23" s="0">
-        <v>282.9257</v>
+        <v>242.031</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3923</v>
+        <v>0.0496</v>
       </c>
       <c r="B24" s="0">
-        <v>285.2985</v>
+        <v>234.6968</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4145</v>
+        <v>0.0288</v>
       </c>
       <c r="B25" s="0">
-        <v>288.0781</v>
+        <v>225.67</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4367</v>
+        <v>0.0099</v>
       </c>
       <c r="B26" s="0">
-        <v>290.1797</v>
+        <v>208.7447</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4589</v>
+        <v>0.0061</v>
       </c>
       <c r="B27" s="0">
-        <v>292.5525</v>
+        <v>199.7179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4812</v>
+        <v>-0.0006</v>
       </c>
       <c r="B28" s="0">
-        <v>295.9422</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.5034</v>
-      </c>
-      <c r="B29" s="0">
-        <v>300.4618</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.5256</v>
-      </c>
-      <c r="B30" s="0">
-        <v>301.387</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.5478</v>
-      </c>
-      <c r="B31" s="0">
-        <v>302.462</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.5701</v>
-      </c>
-      <c r="B32" s="0">
-        <v>303.7249</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.5923</v>
-      </c>
-      <c r="B33" s="0">
-        <v>303.4673</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6145</v>
-      </c>
-      <c r="B34" s="0">
-        <v>304.8232</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6367</v>
-      </c>
-      <c r="B35" s="0">
-        <v>307.9756</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.6589</v>
-      </c>
-      <c r="B36" s="0">
-        <v>311.0787</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.6812</v>
-      </c>
-      <c r="B37" s="0">
-        <v>313.3314</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7034</v>
-      </c>
-      <c r="B38" s="0">
-        <v>316.0544</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7256</v>
-      </c>
-      <c r="B39" s="0">
-        <v>321.5005</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7479</v>
-      </c>
-      <c r="B40" s="0">
-        <v>325.5682</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.7701</v>
-      </c>
-      <c r="B41" s="0">
-        <v>329.5003</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.7923</v>
-      </c>
-      <c r="B42" s="0">
-        <v>333.3645</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8145</v>
-      </c>
-      <c r="B43" s="0">
-        <v>337.6491</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8368</v>
-      </c>
-      <c r="B44" s="0">
-        <v>341.78</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.859</v>
-      </c>
-      <c r="B45" s="0">
-        <v>344.8364</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8812</v>
-      </c>
-      <c r="B46" s="0">
-        <v>347.9741</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9035</v>
-      </c>
-      <c r="B47" s="0">
-        <v>355.4548</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9257</v>
-      </c>
-      <c r="B48" s="0">
-        <v>365.9057</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9484</v>
-      </c>
-      <c r="B49" s="0">
-        <v>380.5541</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9638</v>
-      </c>
-      <c r="B50" s="0">
-        <v>416.97</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9743</v>
-      </c>
-      <c r="B51" s="0">
-        <v>453.4731</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9839</v>
-      </c>
-      <c r="B52" s="0">
-        <v>483.664</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9961</v>
-      </c>
-      <c r="B53" s="0">
-        <v>514.8583</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>142.1721</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3535,7 +3335,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3556,429 +3356,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0021</v>
+        <v>0.9952</v>
       </c>
       <c r="B3" s="0">
-        <v>236.0461</v>
+        <v>749.2243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0019</v>
+        <v>0.9517</v>
       </c>
       <c r="B4" s="0">
-        <v>196.2807</v>
+        <v>515.6559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0032</v>
+        <v>0.8997</v>
       </c>
       <c r="B5" s="0">
-        <v>152.0123</v>
+        <v>468.8293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0036</v>
+        <v>0.8511</v>
       </c>
       <c r="B6" s="0">
-        <v>117.359</v>
+        <v>449.6474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.002</v>
+        <v>0.7987</v>
       </c>
       <c r="B7" s="0">
-        <v>88.577</v>
+        <v>439.4922</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0022</v>
+        <v>0.7477</v>
       </c>
       <c r="B8" s="0">
-        <v>255.0596</v>
+        <v>435.543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0035</v>
+        <v>0.7001</v>
       </c>
       <c r="B9" s="0">
-        <v>298.0867</v>
+        <v>431.0296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.013</v>
+        <v>0.6505</v>
       </c>
       <c r="B10" s="0">
-        <v>324.2665</v>
+        <v>428.2087</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0306</v>
+        <v>0.6005</v>
       </c>
       <c r="B11" s="0">
-        <v>351.3423</v>
+        <v>425.952</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.052</v>
+        <v>0.5501</v>
       </c>
       <c r="B12" s="0">
-        <v>367.5171</v>
+        <v>423.6953</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0727</v>
+        <v>0.4996</v>
       </c>
       <c r="B13" s="0">
-        <v>377.4463</v>
+        <v>422.567</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0933</v>
+        <v>0.451</v>
       </c>
       <c r="B14" s="0">
-        <v>386.9375</v>
+        <v>420.8745</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.115</v>
+        <v>0.4</v>
       </c>
       <c r="B15" s="0">
-        <v>391.8955</v>
+        <v>419.1819</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1299</v>
+        <v>0.3491</v>
       </c>
       <c r="B16" s="0">
-        <v>394.447</v>
+        <v>416.9252</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1548</v>
+        <v>0.2996</v>
       </c>
       <c r="B17" s="0">
-        <v>398.9214</v>
+        <v>414.6685</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1759</v>
+        <v>0.2496</v>
       </c>
       <c r="B18" s="0">
-        <v>401.5393</v>
+        <v>411.2835</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1957</v>
+        <v>0.1995</v>
       </c>
       <c r="B19" s="0">
-        <v>403.5653</v>
+        <v>405.0776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2188</v>
+        <v>0.1505</v>
       </c>
       <c r="B20" s="0">
-        <v>407.38</v>
+        <v>398.8717</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2394</v>
+        <v>0.1014</v>
       </c>
       <c r="B21" s="0">
-        <v>410.1544</v>
+        <v>390.409</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2605</v>
+        <v>0.0919</v>
       </c>
       <c r="B22" s="0">
-        <v>412.0858</v>
+        <v>385.8956</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2807</v>
+        <v>0.0702</v>
       </c>
       <c r="B23" s="0">
-        <v>413.2938</v>
+        <v>377.9972</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3008</v>
+        <v>0.0504</v>
       </c>
       <c r="B24" s="0">
-        <v>414.9547</v>
+        <v>367.2779</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3219</v>
+        <v>0.0291</v>
       </c>
       <c r="B25" s="0">
-        <v>416.0681</v>
+        <v>351.481</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3426</v>
+        <v>0.0111</v>
       </c>
       <c r="B26" s="0">
-        <v>417.6743</v>
+        <v>323.8364</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.3632</v>
+        <v>0.0073</v>
       </c>
       <c r="B27" s="0">
-        <v>417.8933</v>
+        <v>315.9379</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.3838</v>
+        <v>0.0045</v>
       </c>
       <c r="B28" s="0">
-        <v>419.2075</v>
+        <v>306.347</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.4038</v>
+        <v>0.0031</v>
       </c>
       <c r="B29" s="0">
-        <v>419.9376</v>
+        <v>293.9351</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4251</v>
+        <v>0.0006</v>
       </c>
       <c r="B30" s="0">
-        <v>420.8137</v>
+        <v>244.8519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.4462</v>
+        <v>0</v>
       </c>
       <c r="B31" s="0">
-        <v>421.6632</v>
+        <v>210.4372</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.4711</v>
+        <v>-0.0005</v>
       </c>
       <c r="B32" s="0">
-        <v>422.4686</v>
+        <v>187.3061</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.4918</v>
+        <v>-0.0007</v>
       </c>
       <c r="B33" s="0">
-        <v>423.442</v>
+        <v>119.6051</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.5134</v>
+        <v>-0.0007</v>
       </c>
       <c r="B34" s="0">
-        <v>423.5902</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.5323</v>
-      </c>
-      <c r="B35" s="0">
-        <v>425.105</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.553</v>
-      </c>
-      <c r="B36" s="0">
-        <v>425.2009</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.5743</v>
-      </c>
-      <c r="B37" s="0">
-        <v>425.9243</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.5949</v>
-      </c>
-      <c r="B38" s="0">
-        <v>427.421</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.6169</v>
-      </c>
-      <c r="B39" s="0">
-        <v>427.9619</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.6349</v>
-      </c>
-      <c r="B40" s="0">
-        <v>428.4509</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.6567</v>
-      </c>
-      <c r="B41" s="0">
-        <v>430.0327</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.6775</v>
-      </c>
-      <c r="B42" s="0">
-        <v>432.1057</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.6971</v>
-      </c>
-      <c r="B43" s="0">
-        <v>433.2604</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.7219</v>
-      </c>
-      <c r="B44" s="0">
-        <v>434.515</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.7426</v>
-      </c>
-      <c r="B45" s="0">
-        <v>437.3137</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.7632</v>
-      </c>
-      <c r="B46" s="0">
-        <v>438.4089</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.7838</v>
-      </c>
-      <c r="B47" s="0">
-        <v>440.7208</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8045</v>
-      </c>
-      <c r="B48" s="0">
-        <v>442.7894</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8251</v>
-      </c>
-      <c r="B49" s="0">
-        <v>445.9288</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.8458</v>
-      </c>
-      <c r="B50" s="0">
-        <v>449.7983</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.8671</v>
-      </c>
-      <c r="B51" s="0">
-        <v>456.004</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.8871</v>
-      </c>
-      <c r="B52" s="0">
-        <v>464.2541</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9077</v>
-      </c>
-      <c r="B53" s="0">
-        <v>475.8625</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9483</v>
-      </c>
-      <c r="B54" s="0">
-        <v>516.3323</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9949</v>
-      </c>
-      <c r="B55" s="0">
-        <v>747.8312</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>107.1932</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3987,7 +3619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4008,405 +3640,285 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0041</v>
+        <v>0.9951</v>
       </c>
       <c r="B3" s="0">
-        <v>269.0835</v>
+        <v>721.5797</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0007</v>
+        <v>0.9518</v>
       </c>
       <c r="B4" s="0">
-        <v>220.2934</v>
+        <v>550.0705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0005</v>
+        <v>0.9036</v>
       </c>
       <c r="B5" s="0">
-        <v>183.0379</v>
+        <v>530.3244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0003</v>
+        <v>0.8517</v>
       </c>
       <c r="B6" s="0">
-        <v>157.0833</v>
+        <v>508.8858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0002</v>
+        <v>0.8017</v>
       </c>
       <c r="B7" s="0">
-        <v>132.355</v>
+        <v>502.6798</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.02</v>
+        <v>0.7502</v>
       </c>
       <c r="B8" s="0">
-        <v>305.4557</v>
+        <v>497.0381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0432</v>
+        <v>0.7016</v>
       </c>
       <c r="B9" s="0">
-        <v>336.9083</v>
+        <v>490.268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0687</v>
+        <v>0.6516</v>
       </c>
       <c r="B10" s="0">
-        <v>357.7226</v>
+        <v>484.0621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0941</v>
+        <v>0.6021</v>
       </c>
       <c r="B11" s="0">
-        <v>369.3921</v>
+        <v>475.5994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1195</v>
+        <v>0.5511</v>
       </c>
       <c r="B12" s="0">
-        <v>384.1138</v>
+        <v>469.9577</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1449</v>
+        <v>0.4997</v>
       </c>
       <c r="B13" s="0">
-        <v>396.716</v>
+        <v>464.8801</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1703</v>
+        <v>0.452</v>
       </c>
       <c r="B14" s="0">
-        <v>404.4535</v>
+        <v>458.6742</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1951</v>
+        <v>0.4011</v>
       </c>
       <c r="B15" s="0">
-        <v>414.8605</v>
+        <v>449.0832</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2212</v>
+        <v>0.351</v>
       </c>
       <c r="B16" s="0">
-        <v>417.8463</v>
+        <v>441.7489</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2463</v>
+        <v>0.3015</v>
       </c>
       <c r="B17" s="0">
-        <v>424.5845</v>
+        <v>434.4147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.272</v>
+        <v>0.251</v>
       </c>
       <c r="B18" s="0">
-        <v>425.7778</v>
+        <v>426.5162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2974</v>
+        <v>0.2005</v>
       </c>
       <c r="B19" s="0">
-        <v>430.6771</v>
+        <v>415.7969</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3228</v>
+        <v>0.1528</v>
       </c>
       <c r="B20" s="0">
-        <v>436.5556</v>
+        <v>402.2567</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3482</v>
+        <v>0.1014</v>
       </c>
       <c r="B21" s="0">
-        <v>437.9841</v>
+        <v>379.1255</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3736</v>
+        <v>0.0929</v>
       </c>
       <c r="B22" s="0">
-        <v>443.796</v>
+        <v>375.1763</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.399</v>
+        <v>0.0711</v>
       </c>
       <c r="B23" s="0">
-        <v>447.5351</v>
+        <v>361.0719</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4244</v>
+        <v>0.0527</v>
       </c>
       <c r="B24" s="0">
-        <v>452.2728</v>
+        <v>344.7109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4498</v>
+        <v>0.03</v>
       </c>
       <c r="B25" s="0">
-        <v>458.8202</v>
+        <v>322.708</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4752</v>
+        <v>0.0115</v>
       </c>
       <c r="B26" s="0">
-        <v>461.2954</v>
+        <v>288.8575</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5006</v>
+        <v>0.0077</v>
       </c>
       <c r="B27" s="0">
-        <v>465.8613</v>
+        <v>284.3441</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.526</v>
+        <v>0.0054</v>
       </c>
       <c r="B28" s="0">
-        <v>466.6409</v>
+        <v>273.6248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5514</v>
+        <v>0.0044</v>
       </c>
       <c r="B29" s="0">
-        <v>470.0455</v>
+        <v>258.9563</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5768</v>
+        <v>0.0015</v>
       </c>
       <c r="B30" s="0">
-        <v>472.3526</v>
+        <v>231.8759</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6022</v>
+        <v>0.0005</v>
       </c>
       <c r="B31" s="0">
-        <v>476.4633</v>
+        <v>215.5148</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6276</v>
+        <v>0.0005</v>
       </c>
       <c r="B32" s="0">
-        <v>479.4591</v>
+        <v>195.7687</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.653</v>
+        <v>-0.0001</v>
       </c>
       <c r="B33" s="0">
-        <v>482.9937</v>
+        <v>171.5092</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6784</v>
+        <v>-0.0001</v>
       </c>
       <c r="B34" s="0">
-        <v>485.4267</v>
+        <v>150.0705</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7038</v>
+        <v>-0.0002</v>
       </c>
       <c r="B35" s="0">
-        <v>489.5421</v>
+        <v>134.2736</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7292</v>
+        <v>-0.0002</v>
       </c>
       <c r="B36" s="0">
-        <v>493.3207</v>
+        <v>97.6023</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7546</v>
+        <v>-0.0003</v>
       </c>
       <c r="B37" s="0">
-        <v>496.9069</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B38" s="0">
-        <v>500.5007</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8054</v>
-      </c>
-      <c r="B39" s="0">
-        <v>503.5497</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8308</v>
-      </c>
-      <c r="B40" s="0">
-        <v>506.851</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8562</v>
-      </c>
-      <c r="B41" s="0">
-        <v>509.8679</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8816</v>
-      </c>
-      <c r="B42" s="0">
-        <v>522.3886</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9071</v>
-      </c>
-      <c r="B43" s="0">
-        <v>531.6882</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9325</v>
-      </c>
-      <c r="B44" s="0">
-        <v>542.7019</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9546</v>
-      </c>
-      <c r="B45" s="0">
-        <v>559.461</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9952</v>
-      </c>
-      <c r="B46" s="0">
-        <v>719.1058</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>-0.0008</v>
-      </c>
-      <c r="B47" s="0">
-        <v>80.1128</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>-0.0007</v>
-      </c>
-      <c r="B48" s="0">
-        <v>99.2948</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0082</v>
-      </c>
-      <c r="B49" s="0">
-        <v>280.9591</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.012</v>
-      </c>
-      <c r="B50" s="0">
-        <v>287.7292</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.03</v>
-      </c>
-      <c r="B51" s="0">
-        <v>321.5797</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0546</v>
-      </c>
-      <c r="B52" s="0">
-        <v>346.4034</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>79.5487</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 132 Nitrogen-doped porous carbon prepared/Data132_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 132 Nitrogen-doped porous carbon prepared/Data132_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 C-500  0-1-0-800 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3 C-600  0-1-0-800 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 3 C-700  0-1-0-800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 C-500  0&amp;1&amp;0&amp;800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 C-600  0&amp;1&amp;0&amp;800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 C-700  0&amp;1&amp;0&amp;800 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 C-500  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 C-500  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 C-500  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 C-500  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 C-600  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 C-600  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 C-600  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 C-600  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 C-700  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 C-700  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 C-700  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 C-700  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
